--- a/Caso3/Resultados.xlsx
+++ b/Caso3/Resultados.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="150" windowWidth="9315" windowHeight="7230"/>
+    <workbookView xWindow="600" yWindow="150" windowWidth="9315" windowHeight="7230" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
-    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
-    <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
+    <sheet name="Cifrado" sheetId="1" r:id="rId1"/>
+    <sheet name="Sin cifrado" sheetId="4" r:id="rId2"/>
+    <sheet name="Hoja2" sheetId="2" r:id="rId3"/>
+    <sheet name="Hoja3" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="7">
   <si>
     <t>Carga</t>
   </si>
@@ -74,10 +75,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -381,8 +382,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="U11" sqref="U11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -472,602 +473,602 @@
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="1">
         <v>7.4606481481481482E-2</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="1">
         <v>7.4826388888888887E-2</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="1">
         <v>7.678240740740741E-2</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="1">
         <v>7.7013888888888882E-2</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G3" s="1">
         <v>7.7407407407407411E-2</v>
       </c>
-      <c r="H3" s="2">
+      <c r="H3" s="1">
         <v>7.7638888888888882E-2</v>
       </c>
-      <c r="I3" s="2">
+      <c r="I3" s="1">
         <v>7.8148148148148147E-2</v>
       </c>
-      <c r="J3" s="2">
+      <c r="J3" s="1">
         <v>7.8391203703703713E-2</v>
       </c>
-      <c r="K3" s="2">
+      <c r="K3" s="1">
         <v>7.8796296296296295E-2</v>
       </c>
-      <c r="L3" s="2">
+      <c r="L3" s="1">
         <v>7.9039351851851861E-2</v>
       </c>
-      <c r="M3" s="2">
+      <c r="M3" s="1">
         <v>7.9351851851851854E-2</v>
       </c>
-      <c r="N3" s="2">
+      <c r="N3" s="1">
         <v>7.9583333333333339E-2</v>
       </c>
-      <c r="O3" s="2">
+      <c r="O3" s="1">
         <v>0.08</v>
       </c>
-      <c r="P3" s="2">
+      <c r="P3" s="1">
         <v>8.0243055555555554E-2</v>
       </c>
-      <c r="Q3" s="2">
+      <c r="Q3" s="1">
         <v>8.0567129629629627E-2</v>
       </c>
-      <c r="R3" s="2">
+      <c r="R3" s="1">
         <v>8.0798611111111113E-2</v>
       </c>
-      <c r="S3" s="2">
+      <c r="S3" s="1">
         <v>8.1342592592592591E-2</v>
       </c>
-      <c r="T3" s="2">
+      <c r="T3" s="1">
         <v>8.1585648148148157E-2</v>
       </c>
-      <c r="U3" s="2">
+      <c r="U3" s="1">
         <v>8.2326388888888893E-2</v>
       </c>
-      <c r="V3" s="2">
+      <c r="V3" s="1">
         <v>8.2557870370370365E-2</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
+      <c r="A4" s="2"/>
       <c r="B4">
         <v>2</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="1">
         <v>9.6678240740740731E-2</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="1">
         <v>9.6886574074074083E-2</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="1">
         <v>9.751157407407407E-2</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="1">
         <v>9.7754629629629622E-2</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G4" s="1">
         <v>9.8159722222222232E-2</v>
       </c>
-      <c r="H4" s="2">
+      <c r="H4" s="1">
         <v>9.8402777777777783E-2</v>
       </c>
-      <c r="I4" s="2">
+      <c r="I4" s="1">
         <v>9.8726851851851857E-2</v>
       </c>
-      <c r="J4" s="2">
+      <c r="J4" s="1">
         <v>9.8969907407407409E-2</v>
       </c>
-      <c r="K4" s="2">
+      <c r="K4" s="1">
         <v>9.9513888888888888E-2</v>
       </c>
-      <c r="L4" s="2">
+      <c r="L4" s="1">
         <v>9.975694444444444E-2</v>
       </c>
-      <c r="M4" s="2">
+      <c r="M4" s="1">
         <v>0.10010416666666666</v>
       </c>
-      <c r="N4" s="2">
+      <c r="N4" s="1">
         <v>0.10034722222222221</v>
       </c>
-      <c r="O4" s="2">
+      <c r="O4" s="1">
         <v>0.10070601851851851</v>
       </c>
-      <c r="P4" s="2">
+      <c r="P4" s="1">
         <v>0.10094907407407407</v>
       </c>
-      <c r="Q4" s="2">
+      <c r="Q4" s="1">
         <v>0.1012037037037037</v>
       </c>
-      <c r="R4" s="2">
+      <c r="R4" s="1">
         <v>0.10144675925925926</v>
       </c>
-      <c r="S4" s="2">
+      <c r="S4" s="1">
         <v>0.10179398148148149</v>
       </c>
-      <c r="T4" s="2">
+      <c r="T4" s="1">
         <v>0.10203703703703704</v>
       </c>
-      <c r="U4" s="2">
+      <c r="U4" s="1">
         <v>0.10236111111111111</v>
       </c>
-      <c r="V4" s="2">
+      <c r="V4" s="1">
         <v>0.10260416666666666</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
+      <c r="A5" s="2"/>
       <c r="B5">
         <v>8</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="1">
         <v>0.10675925925925926</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="1">
         <v>0.10696759259259259</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="1">
         <v>0.10925925925925926</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="1">
         <v>0.10947916666666667</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5" s="1">
         <v>0.10986111111111112</v>
       </c>
-      <c r="H5" s="2">
+      <c r="H5" s="1">
         <v>0.11008101851851852</v>
       </c>
-      <c r="I5" s="2">
+      <c r="I5" s="1">
         <v>0.11101851851851852</v>
       </c>
-      <c r="J5" s="2">
+      <c r="J5" s="1">
         <v>0.11123842592592592</v>
       </c>
-      <c r="K5" s="2">
+      <c r="K5" s="1">
         <v>0.11167824074074074</v>
       </c>
-      <c r="L5" s="2">
+      <c r="L5" s="1">
         <v>0.11189814814814815</v>
       </c>
-      <c r="M5" s="2">
+      <c r="M5" s="1">
         <v>0.11224537037037037</v>
       </c>
-      <c r="N5" s="2">
+      <c r="N5" s="1">
         <v>0.11246527777777778</v>
       </c>
-      <c r="O5" s="2">
+      <c r="O5" s="1">
         <v>0.11289351851851852</v>
       </c>
-      <c r="P5" s="2">
+      <c r="P5" s="1">
         <v>0.11311342592592592</v>
       </c>
-      <c r="Q5" s="2">
+      <c r="Q5" s="1">
         <v>0.11347222222222221</v>
       </c>
-      <c r="R5" s="2">
+      <c r="R5" s="1">
         <v>0.11368055555555556</v>
       </c>
-      <c r="S5" s="2">
+      <c r="S5" s="1">
         <v>0.1140625</v>
       </c>
-      <c r="T5" s="2">
+      <c r="T5" s="1">
         <v>0.11427083333333332</v>
       </c>
-      <c r="U5" s="2">
+      <c r="U5" s="1">
         <v>0.11478009259259259</v>
       </c>
-      <c r="V5" s="2">
+      <c r="V5" s="1">
         <v>0.11499999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="1">
         <v>0.11739583333333332</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="1">
         <v>0.11763888888888889</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="1">
         <v>0.11901620370370369</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="1">
         <v>0.11924768518518519</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G6" s="1">
         <v>0.1194675925925926</v>
       </c>
-      <c r="H6" s="2">
+      <c r="H6" s="1">
         <v>0.11972222222222222</v>
       </c>
-      <c r="I6" s="2">
+      <c r="I6" s="1">
         <v>0.12002314814814814</v>
       </c>
-      <c r="J6" s="2">
+      <c r="J6" s="1">
         <v>0.12027777777777778</v>
       </c>
-      <c r="K6" s="2">
+      <c r="K6" s="1">
         <v>0.12049768518518518</v>
       </c>
-      <c r="L6" s="2">
+      <c r="L6" s="1">
         <v>0.12075231481481481</v>
       </c>
-      <c r="M6" s="2">
+      <c r="M6" s="1">
         <v>0.12103009259259261</v>
       </c>
-      <c r="N6" s="2">
+      <c r="N6" s="1">
         <v>0.12128472222222221</v>
       </c>
-      <c r="O6" s="2">
+      <c r="O6" s="1">
         <v>0.12165509259259259</v>
       </c>
-      <c r="P6" s="2">
+      <c r="P6" s="1">
         <v>0.12190972222222222</v>
       </c>
-      <c r="Q6" s="2">
+      <c r="Q6" s="1">
         <v>0.12221064814814815</v>
       </c>
-      <c r="R6" s="2">
+      <c r="R6" s="1">
         <v>0.12247685185185185</v>
       </c>
-      <c r="S6" s="2">
+      <c r="S6" s="1">
         <v>0.12280092592592594</v>
       </c>
-      <c r="T6" s="2">
+      <c r="T6" s="1">
         <v>0.12305555555555554</v>
       </c>
-      <c r="U6" s="2">
+      <c r="U6" s="1">
         <v>0.12327546296296295</v>
       </c>
-      <c r="V6" s="2">
+      <c r="V6" s="1">
         <v>0.12353009259259258</v>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
+      <c r="A7" s="2"/>
       <c r="B7">
         <v>2</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="1">
         <v>0.12572916666666667</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="1">
         <v>0.12594907407407407</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="1">
         <v>0.12619212962962964</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="1">
         <v>0.12645833333333334</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G7" s="1">
         <v>0.12671296296296297</v>
       </c>
-      <c r="H7" s="2">
+      <c r="H7" s="1">
         <v>0.12697916666666667</v>
       </c>
-      <c r="I7" s="2">
+      <c r="I7" s="1">
         <v>0.12716435185185185</v>
       </c>
-      <c r="J7" s="2">
+      <c r="J7" s="1">
         <v>0.12743055555555555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="K7" s="1">
         <v>0.12763888888888889</v>
       </c>
-      <c r="L7" s="2">
+      <c r="L7" s="1">
         <v>0.12789351851851852</v>
       </c>
-      <c r="M7" s="2">
+      <c r="M7" s="1">
         <v>0.12806712962962963</v>
       </c>
-      <c r="N7" s="2">
+      <c r="N7" s="1">
         <v>0.12833333333333333</v>
       </c>
-      <c r="O7" s="2">
+      <c r="O7" s="1">
         <v>0.1285300925925926</v>
       </c>
-      <c r="P7" s="2">
+      <c r="P7" s="1">
         <v>0.12878472222222223</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="Q7" s="1">
         <v>0.12898148148148147</v>
       </c>
-      <c r="R7" s="2">
+      <c r="R7" s="1">
         <v>0.12923611111111111</v>
       </c>
-      <c r="S7" s="2">
+      <c r="S7" s="1">
         <v>0.1295138888888889</v>
       </c>
-      <c r="T7" s="2">
+      <c r="T7" s="1">
         <v>0.12976851851851853</v>
       </c>
-      <c r="U7" s="2">
+      <c r="U7" s="1">
         <v>0.12996527777777778</v>
       </c>
-      <c r="V7" s="2">
+      <c r="V7" s="1">
         <v>0.13023148148148148</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
+      <c r="A8" s="2"/>
       <c r="B8">
         <v>8</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="1">
         <v>0.13120370370370371</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="1">
         <v>0.13133101851851853</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="1">
         <v>0.13224537037037037</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F8" s="1">
         <v>0.13237268518518519</v>
       </c>
-      <c r="G8" s="2">
+      <c r="G8" s="1">
         <v>0.1325462962962963</v>
       </c>
-      <c r="H8" s="2">
+      <c r="H8" s="1">
         <v>0.13267361111111112</v>
       </c>
-      <c r="I8" s="2">
+      <c r="I8" s="1">
         <v>0.13287037037037039</v>
       </c>
-      <c r="J8" s="2">
+      <c r="J8" s="1">
         <v>0.13298611111111111</v>
       </c>
-      <c r="K8" s="2">
+      <c r="K8" s="1">
         <v>0.13333333333333333</v>
       </c>
-      <c r="L8" s="2">
+      <c r="L8" s="1">
         <v>0.13346064814814815</v>
       </c>
-      <c r="M8" s="2">
+      <c r="M8" s="1">
         <v>0.13372685185185185</v>
       </c>
-      <c r="N8" s="2">
+      <c r="N8" s="1">
         <v>0.13385416666666666</v>
       </c>
-      <c r="O8" s="2">
+      <c r="O8" s="1">
         <v>0.13443287037037036</v>
       </c>
-      <c r="P8" s="2">
+      <c r="P8" s="1">
         <v>0.13456018518518517</v>
       </c>
-      <c r="Q8" s="2">
+      <c r="Q8" s="1">
         <v>0.13474537037037038</v>
       </c>
-      <c r="R8" s="2">
+      <c r="R8" s="1">
         <v>0.13487268518518519</v>
       </c>
-      <c r="S8" s="2">
+      <c r="S8" s="1">
         <v>0.13505787037037037</v>
       </c>
-      <c r="T8" s="2">
+      <c r="T8" s="1">
         <v>0.13517361111111112</v>
       </c>
-      <c r="U8" s="2">
+      <c r="U8" s="1">
         <v>0.13398148148148148</v>
       </c>
-      <c r="V8" s="2">
+      <c r="V8" s="1">
         <v>0.13341435185185185</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B9">
         <v>1</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="1">
         <v>0.15219907407407407</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="1">
         <v>0.15248842592592593</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="1">
         <v>0.15300925925925926</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F9" s="1">
         <v>0.15329861111111112</v>
       </c>
-      <c r="G9" s="2">
+      <c r="G9" s="1">
         <v>0.15375</v>
       </c>
-      <c r="H9" s="2">
+      <c r="H9" s="1">
         <v>0.1540162037037037</v>
       </c>
-      <c r="I9" s="2">
+      <c r="I9" s="1">
         <v>0.15436342592592592</v>
       </c>
-      <c r="J9" s="2">
+      <c r="J9" s="1">
         <v>0.15464120370370371</v>
       </c>
-      <c r="K9" s="2">
+      <c r="K9" s="1">
         <v>0.15488425925925928</v>
       </c>
-      <c r="L9" s="2">
+      <c r="L9" s="1">
         <v>0.15515046296296295</v>
       </c>
-      <c r="M9" s="2">
+      <c r="M9" s="1">
         <v>0.15537037037037038</v>
       </c>
-      <c r="N9" s="2">
+      <c r="N9" s="1">
         <v>0.15565972222222221</v>
       </c>
-      <c r="O9" s="2">
+      <c r="O9" s="1">
         <v>0.15594907407407407</v>
       </c>
-      <c r="P9" s="2">
+      <c r="P9" s="1">
         <v>0.15622685185185184</v>
       </c>
-      <c r="Q9" s="2">
+      <c r="Q9" s="1">
         <v>0.15649305555555557</v>
       </c>
-      <c r="R9" s="2">
+      <c r="R9" s="1">
         <v>0.15678240740740743</v>
       </c>
-      <c r="S9" s="2">
+      <c r="S9" s="1">
         <v>0.1569675925925926</v>
       </c>
-      <c r="T9" s="2">
+      <c r="T9" s="1">
         <v>0.15724537037037037</v>
       </c>
-      <c r="U9" s="2">
+      <c r="U9" s="1">
         <v>0.15744212962962964</v>
       </c>
-      <c r="V9" s="2">
+      <c r="V9" s="1">
         <v>0.15770833333333334</v>
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
+      <c r="A10" s="2"/>
       <c r="B10">
         <v>2</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="1">
         <v>0.15872685185185184</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="1">
         <v>0.15887731481481482</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="1">
         <v>0.15912037037037038</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F10" s="1">
         <v>0.15925925925925927</v>
       </c>
-      <c r="G10" s="2">
+      <c r="G10" s="1">
         <v>0.1595486111111111</v>
       </c>
-      <c r="H10" s="2">
+      <c r="H10" s="1">
         <v>0.15968750000000001</v>
       </c>
-      <c r="I10" s="2">
+      <c r="I10" s="1">
         <v>0.15998842592592591</v>
       </c>
-      <c r="J10" s="2">
+      <c r="J10" s="1">
         <v>0.16013888888888889</v>
       </c>
-      <c r="K10" s="2">
+      <c r="K10" s="1">
         <v>0.16038194444444445</v>
       </c>
-      <c r="L10" s="2">
+      <c r="L10" s="1">
         <v>0.1605324074074074</v>
       </c>
-      <c r="M10" s="2">
+      <c r="M10" s="1">
         <v>0.16072916666666667</v>
       </c>
-      <c r="N10" s="2">
+      <c r="N10" s="1">
         <v>0.16086805555555556</v>
       </c>
-      <c r="O10" s="2">
+      <c r="O10" s="1">
         <v>0.16111111111111112</v>
       </c>
-      <c r="P10" s="2">
+      <c r="P10" s="1">
         <v>0.16126157407407407</v>
       </c>
-      <c r="Q10" s="2">
+      <c r="Q10" s="1">
         <v>0.16145833333333334</v>
       </c>
-      <c r="R10" s="2">
+      <c r="R10" s="1">
         <v>0.16160879629629629</v>
       </c>
-      <c r="S10" s="2">
+      <c r="S10" s="1">
         <v>0.1618287037037037</v>
       </c>
-      <c r="T10" s="2">
+      <c r="T10" s="1">
         <v>0.16197916666666667</v>
       </c>
-      <c r="U10" s="2">
+      <c r="U10" s="1">
         <v>0.16222222222222224</v>
       </c>
-      <c r="V10" s="2">
+      <c r="V10" s="1">
         <v>0.16238425925925926</v>
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
+      <c r="A11" s="2"/>
       <c r="B11">
         <v>8</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="1">
         <v>0.16344907407407408</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="1">
         <v>0.16351851851851854</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11" s="1">
         <v>0.16381944444444443</v>
       </c>
-      <c r="F11" s="2">
+      <c r="F11" s="1">
         <v>0.16390046296296296</v>
       </c>
-      <c r="G11" s="2">
+      <c r="G11" s="1">
         <v>0.16408564814814816</v>
       </c>
-      <c r="H11" s="2">
+      <c r="H11" s="1">
         <v>0.16416666666666666</v>
       </c>
-      <c r="I11" s="2">
+      <c r="I11" s="1">
         <v>0.16450231481481481</v>
       </c>
-      <c r="J11" s="2">
+      <c r="J11" s="1">
         <v>0.16458333333333333</v>
       </c>
-      <c r="K11" s="2">
+      <c r="K11" s="1">
         <v>0.16476851851851851</v>
       </c>
-      <c r="L11" s="2">
+      <c r="L11" s="1">
         <v>0.16484953703703703</v>
       </c>
-      <c r="M11" s="2">
+      <c r="M11" s="1">
         <v>0.16505787037037037</v>
       </c>
-      <c r="N11" s="2">
+      <c r="N11" s="1">
         <v>0.16513888888888889</v>
       </c>
-      <c r="O11" s="2">
+      <c r="O11" s="1">
         <v>0.16533564814814813</v>
       </c>
-      <c r="P11" s="2">
+      <c r="P11" s="1">
         <v>0.16541666666666668</v>
       </c>
-      <c r="Q11" s="2">
+      <c r="Q11" s="1">
         <v>0.16561342592592593</v>
       </c>
-      <c r="R11" s="2">
+      <c r="R11" s="1">
         <v>0.16569444444444445</v>
       </c>
-      <c r="S11" s="2">
+      <c r="S11" s="1">
         <v>0.16591435185185185</v>
       </c>
-      <c r="T11" s="2">
+      <c r="T11" s="1">
         <v>0.16600694444444444</v>
       </c>
-      <c r="U11" s="2">
+      <c r="U11" s="1">
         <v>0.16618055555555555</v>
       </c>
-      <c r="V11" s="2">
+      <c r="V11" s="1">
         <v>0.16626157407407408</v>
       </c>
     </row>
@@ -1084,13 +1085,706 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:V11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.5703125" customWidth="1"/>
+    <col min="9" max="9" width="13" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2" t="s">
+        <v>5</v>
+      </c>
+      <c r="L2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M2" t="s">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
+        <v>6</v>
+      </c>
+      <c r="O2" t="s">
+        <v>5</v>
+      </c>
+      <c r="P2" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>5</v>
+      </c>
+      <c r="R2" t="s">
+        <v>6</v>
+      </c>
+      <c r="S2" t="s">
+        <v>5</v>
+      </c>
+      <c r="T2" t="s">
+        <v>6</v>
+      </c>
+      <c r="U2" t="s">
+        <v>5</v>
+      </c>
+      <c r="V2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0.2303587962962963</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0.23059027777777777</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0.23091435185185186</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0.23115740740740742</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0.23136574074074076</v>
+      </c>
+      <c r="H3" s="1">
+        <v>0.2316087962962963</v>
+      </c>
+      <c r="I3" s="1">
+        <v>0.2318287037037037</v>
+      </c>
+      <c r="J3" s="1">
+        <v>0.23207175925925927</v>
+      </c>
+      <c r="K3" s="1">
+        <v>0.23231481481481484</v>
+      </c>
+      <c r="L3" s="1">
+        <v>0.23255787037037037</v>
+      </c>
+      <c r="M3" s="1">
+        <v>0.23277777777777778</v>
+      </c>
+      <c r="N3" s="1">
+        <v>0.23302083333333334</v>
+      </c>
+      <c r="O3" s="1">
+        <v>0.23322916666666668</v>
+      </c>
+      <c r="P3" s="1">
+        <v>0.23347222222222222</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>0.2336574074074074</v>
+      </c>
+      <c r="R3" s="1">
+        <v>0.2338888888888889</v>
+      </c>
+      <c r="S3" s="1">
+        <v>0.23412037037037037</v>
+      </c>
+      <c r="T3" s="1">
+        <v>0.23436342592592593</v>
+      </c>
+      <c r="U3" s="1">
+        <v>0.23456018518518518</v>
+      </c>
+      <c r="V3" s="1">
+        <v>0.23480324074074074</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A4" s="2"/>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0.2354050925925926</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.23564814814814816</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0.23592592592592596</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0.23616898148148149</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0.23640046296296294</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0.2366435185185185</v>
+      </c>
+      <c r="I4" s="1">
+        <v>0.23687500000000003</v>
+      </c>
+      <c r="J4" s="1">
+        <v>0.23711805555555557</v>
+      </c>
+      <c r="K4" s="1">
+        <v>0.23733796296296297</v>
+      </c>
+      <c r="L4" s="1">
+        <v>0.23758101851851854</v>
+      </c>
+      <c r="M4" s="1">
+        <v>0.23776620370370372</v>
+      </c>
+      <c r="N4" s="1">
+        <v>0.23802083333333335</v>
+      </c>
+      <c r="O4" s="1">
+        <v>0.23821759259259259</v>
+      </c>
+      <c r="P4" s="1">
+        <v>0.23846064814814816</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>0.2386574074074074</v>
+      </c>
+      <c r="R4" s="1">
+        <v>0.23890046296296297</v>
+      </c>
+      <c r="S4" s="1">
+        <v>0.23908564814814814</v>
+      </c>
+      <c r="T4" s="1">
+        <v>0.23932870370370371</v>
+      </c>
+      <c r="U4" s="1">
+        <v>0.23954861111111111</v>
+      </c>
+      <c r="V4" s="1">
+        <v>0.23979166666666665</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A5" s="2"/>
+      <c r="B5">
+        <v>8</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0.22123842592592591</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0.22144675925925927</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0.22244212962962961</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0.22266203703703702</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0.22299768518518517</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0.22321759259259258</v>
+      </c>
+      <c r="I5" s="1">
+        <v>0.22373842592592594</v>
+      </c>
+      <c r="J5" s="1">
+        <v>0.22395833333333334</v>
+      </c>
+      <c r="K5" s="1">
+        <v>0.22420138888888888</v>
+      </c>
+      <c r="L5" s="1">
+        <v>0.22442129629629629</v>
+      </c>
+      <c r="M5" s="1">
+        <v>0.22468750000000001</v>
+      </c>
+      <c r="N5" s="1">
+        <v>0.22490740740740742</v>
+      </c>
+      <c r="O5" s="1">
+        <v>0.22516203703703705</v>
+      </c>
+      <c r="P5" s="1">
+        <v>0.22537037037037036</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>0.22561342592592593</v>
+      </c>
+      <c r="R5" s="1">
+        <v>0.22583333333333333</v>
+      </c>
+      <c r="S5" s="1">
+        <v>0.2260648148148148</v>
+      </c>
+      <c r="T5" s="1">
+        <v>0.2262962962962963</v>
+      </c>
+      <c r="U5" s="1">
+        <v>0.2265625</v>
+      </c>
+      <c r="V5" s="1">
+        <v>0.22677083333333334</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0.24103009259259259</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0.24124999999999999</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0.24138888888888888</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0.24164351851851851</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0.24182870370370368</v>
+      </c>
+      <c r="H6" s="1">
+        <v>0.24208333333333334</v>
+      </c>
+      <c r="I6" s="1">
+        <v>0.24221064814814816</v>
+      </c>
+      <c r="J6" s="1">
+        <v>0.24246527777777779</v>
+      </c>
+      <c r="K6" s="1">
+        <v>0.24259259259259258</v>
+      </c>
+      <c r="L6" s="1">
+        <v>0.24284722222222221</v>
+      </c>
+      <c r="M6" s="1">
+        <v>0.24298611111111112</v>
+      </c>
+      <c r="N6" s="1">
+        <v>0.24324074074074073</v>
+      </c>
+      <c r="O6" s="1">
+        <v>0.24336805555555555</v>
+      </c>
+      <c r="P6" s="1">
+        <v>0.24362268518518518</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>0.24372685185185183</v>
+      </c>
+      <c r="R6" s="1">
+        <v>0.24398148148148149</v>
+      </c>
+      <c r="S6" s="1">
+        <v>0.24409722222222222</v>
+      </c>
+      <c r="T6" s="1">
+        <v>0.24436342592592594</v>
+      </c>
+      <c r="U6" s="1">
+        <v>0.24446759259259257</v>
+      </c>
+      <c r="V6" s="1">
+        <v>0.2447222222222222</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A7" s="2"/>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0.24635416666666665</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0.24658564814814818</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0.24672453703703703</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0.24699074074074076</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0.24710648148148148</v>
+      </c>
+      <c r="H7" s="1">
+        <v>0.24737268518518518</v>
+      </c>
+      <c r="I7" s="1">
+        <v>0.24749999999999997</v>
+      </c>
+      <c r="J7" s="1">
+        <v>0.2477662037037037</v>
+      </c>
+      <c r="K7" s="1">
+        <v>0.24788194444444445</v>
+      </c>
+      <c r="L7" s="1">
+        <v>0.24814814814814815</v>
+      </c>
+      <c r="M7" s="1">
+        <v>0.24826388888888887</v>
+      </c>
+      <c r="N7" s="1">
+        <v>0.24853009259259259</v>
+      </c>
+      <c r="O7" s="1">
+        <v>0.2486689814814815</v>
+      </c>
+      <c r="P7" s="1">
+        <v>0.24893518518518518</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>0.24906249999999999</v>
+      </c>
+      <c r="R7" s="1">
+        <v>0.24932870370370372</v>
+      </c>
+      <c r="S7" s="1">
+        <v>0.24940972222222224</v>
+      </c>
+      <c r="T7" s="1">
+        <v>0.24967592592592591</v>
+      </c>
+      <c r="U7" s="1">
+        <v>0.2497800925925926</v>
+      </c>
+      <c r="V7" s="1">
+        <v>0.25003472222222223</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A8" s="2"/>
+      <c r="B8">
+        <v>8</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0.2512152777777778</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0.25136574074074075</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0.25153935185185183</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0.25165509259259261</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0.25177083333333333</v>
+      </c>
+      <c r="H8" s="1">
+        <v>0.25188657407407405</v>
+      </c>
+      <c r="I8" s="1">
+        <v>0.25201388888888887</v>
+      </c>
+      <c r="J8" s="1">
+        <v>0.25214120370370369</v>
+      </c>
+      <c r="K8" s="1">
+        <v>0.25221064814814814</v>
+      </c>
+      <c r="L8" s="1">
+        <v>0.25232638888888886</v>
+      </c>
+      <c r="M8" s="1">
+        <v>0.25241898148148151</v>
+      </c>
+      <c r="N8" s="1">
+        <v>0.25253472222222223</v>
+      </c>
+      <c r="O8" s="1">
+        <v>0.25263888888888891</v>
+      </c>
+      <c r="P8" s="1">
+        <v>0.25276620370370367</v>
+      </c>
+      <c r="Q8" s="1">
+        <v>0.25292824074074077</v>
+      </c>
+      <c r="R8" s="1">
+        <v>0.25305555555555553</v>
+      </c>
+      <c r="S8" s="1">
+        <v>0.25318287037037041</v>
+      </c>
+      <c r="T8" s="1">
+        <v>0.25331018518518517</v>
+      </c>
+      <c r="U8" s="1">
+        <v>0.25337962962962962</v>
+      </c>
+      <c r="V8" s="1">
+        <v>0.25349537037037034</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0.25508101851851855</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0.25535879629629626</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0.25567129629629631</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0.25593749999999998</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0.2560763888888889</v>
+      </c>
+      <c r="H9" s="1">
+        <v>0.25634259259259257</v>
+      </c>
+      <c r="I9" s="1">
+        <v>0.25645833333333334</v>
+      </c>
+      <c r="J9" s="1">
+        <v>0.25673611111111111</v>
+      </c>
+      <c r="K9" s="1">
+        <v>0.25685185185185183</v>
+      </c>
+      <c r="L9" s="1">
+        <v>0.25712962962962965</v>
+      </c>
+      <c r="M9" s="1">
+        <v>0.25732638888888887</v>
+      </c>
+      <c r="N9" s="1">
+        <v>0.2575925925925926</v>
+      </c>
+      <c r="O9" s="1">
+        <v>0.25768518518518518</v>
+      </c>
+      <c r="P9" s="1">
+        <v>0.25795138888888886</v>
+      </c>
+      <c r="Q9" s="1">
+        <v>0.25802083333333331</v>
+      </c>
+      <c r="R9" s="1">
+        <v>0.25828703703703704</v>
+      </c>
+      <c r="S9" s="1">
+        <v>0.25844907407407408</v>
+      </c>
+      <c r="T9" s="1">
+        <v>0.25871527777777775</v>
+      </c>
+      <c r="U9" s="1">
+        <v>0.25884259259259262</v>
+      </c>
+      <c r="V9" s="1">
+        <v>0.25912037037037033</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A10" s="2"/>
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0.2600115740740741</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0.26015046296296296</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0.26021990740740741</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0.26034722222222223</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0.26042824074074072</v>
+      </c>
+      <c r="H10" s="1">
+        <v>0.26056712962962963</v>
+      </c>
+      <c r="I10" s="1">
+        <v>0.26063657407407409</v>
+      </c>
+      <c r="J10" s="1">
+        <v>0.260775462962963</v>
+      </c>
+      <c r="K10" s="1">
+        <v>0.26089120370370372</v>
+      </c>
+      <c r="L10" s="1">
+        <v>0.26101851851851848</v>
+      </c>
+      <c r="M10" s="1">
+        <v>0.26112268518518517</v>
+      </c>
+      <c r="N10" s="1">
+        <v>0.26127314814814812</v>
+      </c>
+      <c r="O10" s="1">
+        <v>0.26140046296296299</v>
+      </c>
+      <c r="P10" s="1">
+        <v>0.26155092592592594</v>
+      </c>
+      <c r="Q10" s="1">
+        <v>0.2615972222222222</v>
+      </c>
+      <c r="R10" s="1">
+        <v>0.26174768518518515</v>
+      </c>
+      <c r="S10" s="1">
+        <v>0.26185185185185184</v>
+      </c>
+      <c r="T10" s="1">
+        <v>0.26200231481481479</v>
+      </c>
+      <c r="U10" s="1">
+        <v>0.26208333333333333</v>
+      </c>
+      <c r="V10" s="1">
+        <v>0.26223379629629628</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A11" s="2"/>
+      <c r="B11">
+        <v>8</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0.26324074074074072</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0.26332175925925927</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0.26341435185185186</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0.26349537037037035</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0.26359953703703703</v>
+      </c>
+      <c r="H11" s="1">
+        <v>0.26368055555555553</v>
+      </c>
+      <c r="I11" s="1">
+        <v>0.26384259259259263</v>
+      </c>
+      <c r="J11" s="1">
+        <v>0.26392361111111112</v>
+      </c>
+      <c r="K11" s="1">
+        <v>0.26403935185185184</v>
+      </c>
+      <c r="L11" s="1">
+        <v>0.26412037037037034</v>
+      </c>
+      <c r="M11" s="1">
+        <v>0.26424768518518521</v>
+      </c>
+      <c r="N11" s="1">
+        <v>0.2643287037037037</v>
+      </c>
+      <c r="O11" s="1">
+        <v>0.26453703703703707</v>
+      </c>
+      <c r="P11" s="1">
+        <v>0.26461805555555556</v>
+      </c>
+      <c r="Q11" s="1">
+        <v>0.26478009259259261</v>
+      </c>
+      <c r="R11" s="1">
+        <v>0.2648726851851852</v>
+      </c>
+      <c r="S11" s="1">
+        <v>0.26504629629629628</v>
+      </c>
+      <c r="T11" s="1">
+        <v>0.26512731481481483</v>
+      </c>
+      <c r="U11" s="1">
+        <v>0.26527777777777778</v>
+      </c>
+      <c r="V11" s="1">
+        <v>0.26535879629629627</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="A9:A11"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1104,4 +1798,16 @@
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>